--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>LOAD TEST</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Python (FastAPI)</t>
   </si>
   <si>
+    <t>NodeJS (Vanilla)</t>
+  </si>
+  <si>
     <t>Warmup</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Req per sec</t>
+  </si>
 </sst>
 </file>
 
@@ -62,7 +68,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,14 +87,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -650,152 +648,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,9 +834,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,9 +982,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Laravel</c:v>
                 </c:pt>
@@ -1007,16 +1002,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Python (FastAPI)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NodeJS (Vanilla)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>23000</c:v>
                 </c:pt>
@@ -1034,6 +1032,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1409000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,9 +1069,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Laravel</c:v>
                 </c:pt>
@@ -1088,16 +1089,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Python (FastAPI)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NodeJS (Vanilla)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:f>Sheet1!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>21000</c:v>
                 </c:pt>
@@ -1115,6 +1119,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1499000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1149,9 +1156,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Laravel</c:v>
                 </c:pt>
@@ -1169,16 +1176,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Python (FastAPI)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NodeJS (Vanilla)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:f>Sheet1!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>22000</c:v>
                 </c:pt>
@@ -1196,6 +1206,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1459000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,9 +1243,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Laravel</c:v>
                 </c:pt>
@@ -1250,16 +1263,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Python (FastAPI)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NodeJS (Vanilla)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:f>Sheet1!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>21000</c:v>
                 </c:pt>
@@ -1277,6 +1293,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1342000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,9 +1330,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Laravel</c:v>
                 </c:pt>
@@ -1331,16 +1350,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Python (FastAPI)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NodeJS (Vanilla)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$G$6</c:f>
+              <c:f>Sheet1!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>21750</c:v>
                 </c:pt>
@@ -1358,6 +1380,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>48750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1427250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1624,7 +1649,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Average Request Handled for 60 seconds</a:t>
+              <a:t>Average Request Handled per Second</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1647,22 +1672,22 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average</c:v>
+                  <c:v>Req per sec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1728,9 +1753,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Laravel</c:v>
                 </c:pt>
@@ -1748,33 +1773,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Python (FastAPI)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NodeJS (Vanilla)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$G$6</c:f>
+              <c:f>Sheet1!$B$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>21750</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133250</c:v>
+                  <c:v>2221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>598500</c:v>
+                  <c:v>9975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1355000</c:v>
+                  <c:v>22583</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1490750</c:v>
+                  <c:v>24846</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48750</c:v>
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,12 +1920,12 @@
                           <c15:sqref/>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$H$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>Laravel</c:v>
                       </c:pt>
@@ -1912,6 +1943,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>Python (FastAPI)</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>NodeJS (Vanilla)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1921,13 +1955,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$G$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$H$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>23000</c:v>
                       </c:pt>
@@ -1945,6 +1979,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>49000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1409000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2046,12 +2083,12 @@
                           <c15:sqref/>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$H$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>Laravel</c:v>
                       </c:pt>
@@ -2069,6 +2106,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>Python (FastAPI)</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>NodeJS (Vanilla)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2078,13 +2118,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$G$3</c15:sqref>
+                          <c15:sqref>Sheet1!$B$3:$H$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>21000</c:v>
                       </c:pt>
@@ -2102,6 +2142,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>49000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1499000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2203,12 +2246,12 @@
                           <c15:sqref/>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$H$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>Laravel</c:v>
                       </c:pt>
@@ -2226,6 +2269,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>Python (FastAPI)</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>NodeJS (Vanilla)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2235,13 +2281,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$G$4</c15:sqref>
+                          <c15:sqref>Sheet1!$B$4:$H$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>22000</c:v>
                       </c:pt>
@@ -2259,6 +2305,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>48000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1459000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2360,12 +2409,12 @@
                           <c15:sqref/>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$H$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>Laravel</c:v>
                       </c:pt>
@@ -2383,6 +2432,9 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>Python (FastAPI)</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>NodeJS (Vanilla)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2392,13 +2444,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5:$G$5</c15:sqref>
+                          <c15:sqref>Sheet1!$B$5:$H$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>21000</c:v>
                       </c:pt>
@@ -2416,6 +2468,172 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>49000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1342000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Average</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Laravel</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>NestJS (Express)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>NestJS (Fastify)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Kotlin (Ktor)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Golang</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Python (FastAPI)</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>NodeJS (Vanilla)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$6:$H$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>21750</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>133250</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>598500</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1355000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1490750</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>48750</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1427250</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3732,13 +3950,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>24130</xdr:rowOff>
+      <xdr:rowOff>113030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1407160</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3746,7 +3964,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="838200" y="1290955"/>
+        <a:off x="838200" y="1379855"/>
         <a:ext cx="8789035" cy="5620385"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4050,8 +4268,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -4089,11 +4307,13 @@
       <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5">
         <v>23000</v>
@@ -4113,10 +4333,13 @@
       <c r="G2">
         <v>49000</v>
       </c>
+      <c r="H2">
+        <v>1409000</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5">
         <v>21000</v>
@@ -4136,10 +4359,13 @@
       <c r="G3">
         <v>49000</v>
       </c>
+      <c r="H3">
+        <v>1499000</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5">
         <v>22000</v>
@@ -4159,10 +4385,13 @@
       <c r="G4">
         <v>48000</v>
       </c>
+      <c r="H4">
+        <v>1459000</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="9">
         <v>21000</v>
@@ -4182,10 +4411,13 @@
       <c r="G5">
         <v>49000</v>
       </c>
+      <c r="H5">
+        <v>1342000</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="11">
         <f>AVERAGE(B2:B5)</f>
@@ -4210,6 +4442,36 @@
       <c r="G6" s="11">
         <f>AVERAGE(G2:G5)</f>
         <v>48750</v>
+      </c>
+      <c r="H6" s="11">
+        <f>AVERAGE(H2:H5)</f>
+        <v>1427250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>365</v>
+      </c>
+      <c r="C7">
+        <v>2221</v>
+      </c>
+      <c r="D7">
+        <v>9975</v>
+      </c>
+      <c r="E7">
+        <v>22583</v>
+      </c>
+      <c r="F7">
+        <v>24846</v>
+      </c>
+      <c r="G7">
+        <v>813</v>
+      </c>
+      <c r="H7">
+        <v>23788</v>
       </c>
     </row>
     <row r="8" spans="1:4">
